--- a/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/下界神化boss数值曲线.xlsx
+++ b/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/下界神化boss数值曲线.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15164\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\git\1.18.2Minecraft_modpacks01\test\[神化]Apotheosis-1.18.2-5.8.1\data\apotheosis\bosses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC08803-DCD1-4C24-9DF1-3B91EF2D14B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCA0D0-C07B-4241-98D9-ADC32CD38190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸壳</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,26 +357,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/下界神化boss数值曲线.xlsx
+++ b/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/下界神化boss数值曲线.xlsx
@@ -1,36 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\git\1.18.2Minecraft_modpacks01\test\[神化]Apotheosis-1.18.2-5.8.1\data\apotheosis\bosses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCA0D0-C07B-4241-98D9-ADC32CD38190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF41BF-64CE-43DA-ACCB-DC36F6D2DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+  <si>
+    <t>罕见(uncommon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍贵(rare)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_health(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement_speed(乘算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_damage/arrow_damage(乘算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockback_resistance(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗(epic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰人(blaze)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪灵蛮兵(piglin_brute)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪灵(piglin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凋灵骷髅(wither_skeleton))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸疣猪兽(zoglin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸猪灵(zombified_piglin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor_toughness(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>``</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,24 +143,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,13 +166,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -92,6 +329,1414 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>僵尸猪灵(zombified_piglin)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C75B-4C7E-ABF7-6E6F67EB693C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>烈焰人(blaze)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C75B-4C7E-ABF7-6E6F67EB693C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>猪灵(piglin)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C75B-4C7E-ABF7-6E6F67EB693C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>凋灵骷髅(wither_skeleton))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C75B-4C7E-ABF7-6E6F67EB693C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>僵尸疣猪兽(zoglin)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C75B-4C7E-ABF7-6E6F67EB693C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>猪灵蛮兵(piglin_brute)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>权重</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C75B-4C7E-ABF7-6E6F67EB693C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="807676431"/>
+        <c:axId val="809617007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="807676431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809617007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="809617007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="807676431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AF36B4-468D-83A7-4636-204B09A688C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,19 +2002,1144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.08203125" customWidth="1"/>
+    <col min="2" max="3" width="8.58203125" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="7" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="30.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1">
+        <v>120</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5">
+        <v>100</v>
+      </c>
+      <c r="K3" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5">
+        <v>100</v>
+      </c>
+      <c r="K4" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1">
+        <v>120</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>120</v>
+      </c>
+      <c r="K7" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>80</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5">
+        <v>120</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1">
+        <v>80</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11">
+        <v>8</v>
+      </c>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="11">
+        <v>9</v>
+      </c>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="11">
+        <v>10</v>
+      </c>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="7">
+        <v>8</v>
+      </c>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="7">
+        <v>8</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8</v>
+      </c>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="7">
+        <v>4</v>
+      </c>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="K48" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D1:D32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H32"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:G25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>